--- a/biology/Médecine/Henri_Eloy_Leroy/Henri_Eloy_Leroy.xlsx
+++ b/biology/Médecine/Henri_Eloy_Leroy/Henri_Eloy_Leroy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Henri Eloy Joseph Leroy, né à Soignies, le 1er décembre 1787 et mort dans cette même ville, le 4 janvier 1865, est un médecin, un patriote et le premier bourgmestre de Soignies, en Wallonie (Belgique), de 1830 à 1836.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Soignies, le 1er décembre 1787, Henri Eloy Leroy y est décédé le 4 janvier 1865.
 Henri Leroy commence sa formation en médecine à Bruxelles en 1807, il la poursuit en 1810 à Paris mais ses parents, inquiets des troubles politiques, le rappellent à Soignies. Il est à cette époque chargé de service à l’hôpital militaire de Mons où il contracte la fièvre typhoïde. Après une longue convalescence, il termine ses études de médecine et obtient son diplôme de l'Université de Leyde en 1816.
@@ -551,7 +565,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents sont Philippe Vincent Leroy (1742-1829) et Marie Thérèse Pieman (née ca 1760), tous deux originaires de Soignies. Ils eurent dix enfants. Henri Eloy fut le deuxième. Il épouse Thérèse Catherine Joseph Marousé (1787-1878). Ils eurent neuf enfants. Henri Eloy Leroy est l'arrière-grand-père de Henri Bourdeaux (1884-1968), pharmacien à Soignies, dont l'officine (datant de la fin du XIXe siècles) est restée intacte jusqu'à nos jours.
 Lire l'éloge funèbre de Henri Eloy Le Roy
@@ -568,7 +584,7 @@
 En 1830, à cette époque mémorable où la Belgique voulut reconquérir son indépendance, Le Roy organisa, à Soignies, une compagnie de volontaires qui volèrent au secours de Bruxelles pendant les journées de septembre, et il envoya en même temps des vivres pour aider au ravitaillement de cette ville. Cet acte de dévouement à la cause nationale, lui a mérité la décoration de la croix de Fer.
 Dans la même année Le Roy fut appelé par le Gouvernement provisoire aux fonctions de bourgmestre de la ville de Soignies, charge qu'il a remplie jusqu'en 1836. En 1831, il fut nommé commissaire de district, fonctions qu'il a occupées jusqu'en 1847. C'est pour services rendus en cette qualité que Sa Majesté Léopold, voulant donner un témoignage de satisfaction à notre regretté collègue, le nomma, en 1844, Chevalier de son ordre.
 Voilà, Messieurs, quelle fut la carrière de l'homme que nous pleurons; carrière où la charité et le dévouement ont eu une bien large part. Quand l'on quitte le monde en laissant d'aussi nobles souvenirs, on ne lègue que des regrets non-seulement à sa famille et à ses amis, mais aussi à tous ceux dont on a été connu.
-Adieu donc Le Roy! Adieu cher collègue!! Tu emportes dans la tombe ce qui doit le plus consoler l'homme de bien: l'amour de tes proches, l'estime de tes amis et de tous ceux qui ont entendu prononcer ton nom[1].
+Adieu donc Le Roy! Adieu cher collègue!! Tu emportes dans la tombe ce qui doit le plus consoler l'homme de bien: l'amour de tes proches, l'estime de tes amis et de tous ceux qui ont entendu prononcer ton nom.
 </t>
         </is>
       </c>
@@ -597,7 +613,9 @@
           <t>Reconnaissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une rue porte son nom à Soignies.</t>
         </is>
@@ -627,10 +645,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Croix de fer[1].
-Chevalier de l'Ordre de Léopold[1].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Croix de fer.
+Chevalier de l'Ordre de Léopold.</t>
         </is>
       </c>
     </row>
@@ -658,7 +678,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a b et c "éloge funèbre prononcé par M. Tallois in "Bulletin de l'Académie royale de médecine de Belgique], série 2, T. VIII, Bruxelles, Manceaux, 1865.
@@ -692,7 +714,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Leroy a eu une grande descendance dont une branche qui vit actuellement aux États-Unis et qui consacre un site en anglais très bien documenté à son illustre aïeul.
  Portail de l’histoire militaire de la Belgique   Portail de la médecine   Portail du XIXe siècle   Portail du Hainaut   Portail de la politique belge                 </t>
